--- a/Module 2 Everyday Excel Part 2/Week 1 files/Names and numbers.xlsx
+++ b/Module 2 Everyday Excel Part 2/Week 1 files/Names and numbers.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\MOOC Excel\Screencasts\Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Week 1 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7733825-59AF-430C-8DE9-A2F72A10E81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B13686D-9E02-41D4-9AF5-F6DB6B816183}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E1CEA3FC-7D63-450A-8EA6-636E11E8161A}"/>
+    <workbookView xWindow="1455" yWindow="3855" windowWidth="28500" windowHeight="14955" xr2:uid="{E1CEA3FC-7D63-450A-8EA6-636E11E8161A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Timothy</t>
   </si>
@@ -99,6 +91,9 @@
   </si>
   <si>
     <t>Name:</t>
+  </si>
+  <si>
+    <t>BRIAN</t>
   </si>
 </sst>
 </file>
@@ -165,7 +160,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -475,19 +520,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0497146-F821-481B-8721-27F689BE2595}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -498,7 +543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -512,10 +557,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -526,7 +571,7 @@
         <v>735038283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -534,7 +579,7 @@
         <v>347593598</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -545,7 +590,7 @@
         <v>107274424</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -553,7 +598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -564,15 +609,27 @@
         <v>154641442</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
         <v>276089830</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F8" t="b">
+        <f>OR(ISBLANK($B2),ISBLANK($C2))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" ref="G8:H8" si="0">OR(ISBLANK($B2),ISBLANK($C2))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -582,8 +639,20 @@
       <c r="C9">
         <v>389402409</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F9" t="b">
+        <f t="shared" ref="F9:H17" si="1">OR(ISBLANK($B3),ISBLANK($C3))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -593,16 +662,132 @@
       <c r="C10">
         <v>999899472</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
+      <c r="F11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:C11">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$A2=$G$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>OR(ISBLANK($B2),ISBLANK($C2))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
